--- a/rp/Excel/FullHair_整体发型.xlsx
+++ b/rp/Excel/FullHair_整体发型.xlsx
@@ -498,8 +498,8 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="str">
         <v>0-Common
-1-FeMale
-2-Male</v>
+1-Male
+2-FeMale</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -551,7 +551,7 @@
         <v>296024</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -581,7 +581,7 @@
         <v>476304</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -611,7 +611,7 @@
         <v>478217</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -641,7 +641,7 @@
         <v>383405</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -671,7 +671,7 @@
         <v>63887</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -701,7 +701,7 @@
         <v>64546</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -731,7 +731,7 @@
         <v>111578</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -761,7 +761,7 @@
         <v>120073</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -791,7 +791,7 @@
         <v>126011</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -821,7 +821,7 @@
         <v>476243</v>
       </c>
       <c r="D14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -851,7 +851,7 @@
         <v>99383</v>
       </c>
       <c r="D15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -881,7 +881,7 @@
         <v>118075</v>
       </c>
       <c r="D16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>

--- a/rp/Excel/FullHair_整体发型.xlsx
+++ b/rp/Excel/FullHair_整体发型.xlsx
@@ -1,92 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcMode="auto"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
-    <t xml:space="preserve">  </t>
+    <t xml:space="preserve">Int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AssetId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SexType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-Common
+1-Male
+2-FeMale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
+  <borders count="1">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -94,356 +102,81 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
-  <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A123" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F146" activeCellId="0" sqref="F146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="12.078125" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="str">
-        <v>Int</v>
-      </c>
-      <c r="B1" s="2" t="str">
-        <v>String</v>
-      </c>
-      <c r="C1" s="2" t="str">
-        <v>String</v>
-      </c>
-      <c r="D1" s="2" t="str">
-        <v>Int</v>
+    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -462,18 +195,18 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <v>Describe</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <v>AssetId</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <v>SexType</v>
+    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -492,14 +225,12 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="str">
-        <v>0-Common
-1-Male
-2-FeMale</v>
+    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -518,7 +249,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -540,17 +271,15 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <v>古典盘发</v>
-      </c>
-      <c r="C5" s="1">
-        <v>296024</v>
-      </c>
-      <c r="D5" s="1">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="n">
+        <v>61001</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E5" s="1"/>
@@ -570,17 +299,15 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <v>头饰长发</v>
-      </c>
-      <c r="C6" s="1">
-        <v>476304</v>
-      </c>
-      <c r="D6" s="1">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="n">
+        <v>62967</v>
+      </c>
+      <c r="D6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E6" s="1"/>
@@ -600,17 +327,15 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="str">
-        <v>带帽短发</v>
-      </c>
-      <c r="C7" s="1">
-        <v>478217</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="n">
+        <v>63873</v>
+      </c>
+      <c r="D7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E7" s="1"/>
@@ -630,17 +355,15 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="str">
-        <v>马尾辫</v>
-      </c>
-      <c r="C8" s="1">
-        <v>383405</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="n">
+        <v>64777</v>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>2</v>
       </c>
       <c r="E8" s="1"/>
@@ -660,18 +383,16 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="str">
-        <v>护目镜飞机头</v>
-      </c>
-      <c r="C9" s="1">
-        <v>63887</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="n">
+        <v>91904</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -690,18 +411,16 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="str">
-        <v>金属头套</v>
-      </c>
-      <c r="C10" s="1">
-        <v>64546</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="n">
+        <v>111076</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -720,18 +439,16 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="str">
-        <v>大粗马尾</v>
-      </c>
-      <c r="C11" s="1">
-        <v>111578</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="n">
+        <v>117626</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -750,18 +467,16 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="str">
-        <v>绑带头发</v>
-      </c>
-      <c r="C12" s="1">
-        <v>120073</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="n">
+        <v>118571</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -780,18 +495,16 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="str">
-        <v>牢笼面具</v>
-      </c>
-      <c r="C13" s="1">
-        <v>126011</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="n">
+        <v>119228</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -810,18 +523,16 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="str">
-        <v>礼服头发</v>
-      </c>
-      <c r="C14" s="1">
-        <v>476243</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="n">
+        <v>119744</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -840,18 +551,16 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="str">
-        <v>网纹面罩</v>
-      </c>
-      <c r="C15" s="1">
-        <v>99383</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="n">
+        <v>120586</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -870,18 +579,16 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="str">
-        <v>狗头头套</v>
-      </c>
-      <c r="C16" s="1">
-        <v>118075</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="n">
+        <v>124743</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -900,11 +607,17 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17">
-      <c r="A17" s="1"/>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>13</v>
+      </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1" t="n">
+        <v>124878</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -922,11 +635,17 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18">
-      <c r="A18" s="1"/>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>14</v>
+      </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="C18" s="1" t="n">
+        <v>125736</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -944,11 +663,17 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19">
-      <c r="A19" s="1"/>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="1" t="n">
+        <v>128594</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -966,11 +691,17 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20">
-      <c r="A20" s="1"/>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="C20" s="1" t="n">
+        <v>128836</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -988,11 +719,17 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21">
-      <c r="A21" s="1"/>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>17</v>
+      </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="1" t="n">
+        <v>131787</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1010,11 +747,17 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22">
-      <c r="A22" s="1"/>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>18</v>
+      </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="C22" s="1" t="n">
+        <v>134960</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1032,11 +775,17 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23">
-      <c r="A23" s="1"/>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>19</v>
+      </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="1" t="n">
+        <v>137426</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1054,11 +803,17 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24">
-      <c r="A24" s="1"/>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>20</v>
+      </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="C24" s="1" t="n">
+        <v>142679</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1076,11 +831,17 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25">
-      <c r="A25" s="1"/>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>21</v>
+      </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="C25" s="1" t="n">
+        <v>142838</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1098,11 +859,17 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26">
-      <c r="A26" s="1"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>22</v>
+      </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="1" t="n">
+        <v>217368</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1120,11 +887,17 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27">
-      <c r="A27" s="1"/>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>23</v>
+      </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="C27" s="1" t="n">
+        <v>221707</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1142,11 +915,17 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28">
-      <c r="A28" s="1"/>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>24</v>
+      </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="C28" s="1" t="n">
+        <v>224013</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1164,11 +943,17 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29">
-      <c r="A29" s="1"/>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>25</v>
+      </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="C29" s="1" t="n">
+        <v>248350</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1186,11 +971,17 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30">
-      <c r="A30" s="1"/>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>26</v>
+      </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="C30" s="1" t="n">
+        <v>264187</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1208,11 +999,17 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="1"/>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>27</v>
+      </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="C31" s="1" t="n">
+        <v>269617</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1230,11 +1027,17 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32">
-      <c r="A32" s="1"/>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>28</v>
+      </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="C32" s="1" t="n">
+        <v>269619</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1252,11 +1055,17 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33">
-      <c r="A33" s="1"/>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>29</v>
+      </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="C33" s="1" t="n">
+        <v>296024</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1274,11 +1083,17 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34">
-      <c r="A34" s="1"/>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>30</v>
+      </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="C34" s="1" t="n">
+        <v>298036</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1296,11 +1111,17 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35">
-      <c r="A35" s="1"/>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>31</v>
+      </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="C35" s="1" t="n">
+        <v>300484</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1318,11 +1139,17 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36">
-      <c r="A36" s="1"/>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>32</v>
+      </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="C36" s="1" t="n">
+        <v>314287</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1340,11 +1167,17 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37">
-      <c r="A37" s="1"/>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>33</v>
+      </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="C37" s="1" t="n">
+        <v>321372</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1362,11 +1195,17 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38">
-      <c r="A38" s="1"/>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>34</v>
+      </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="C38" s="1" t="n">
+        <v>325907</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1384,11 +1223,17 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39">
-      <c r="A39" s="1"/>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>35</v>
+      </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="C39" s="1" t="n">
+        <v>344231</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1406,11 +1251,17 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40">
-      <c r="A40" s="1"/>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>36</v>
+      </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="C40" s="1" t="n">
+        <v>356247</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1428,11 +1279,17 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41">
-      <c r="A41" s="1"/>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>37</v>
+      </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="C41" s="1" t="n">
+        <v>362143</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1450,11 +1307,17 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42">
-      <c r="A42" s="1"/>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>38</v>
+      </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="C42" s="1" t="n">
+        <v>370792</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -1472,11 +1335,17 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43">
-      <c r="A43" s="1"/>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>39</v>
+      </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="C43" s="1" t="n">
+        <v>383402</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1494,11 +1363,17 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44">
-      <c r="A44" s="1"/>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>40</v>
+      </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="C44" s="1" t="n">
+        <v>383404</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -1516,11 +1391,17 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45">
-      <c r="A45" s="1"/>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>41</v>
+      </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="C45" s="1" t="n">
+        <v>391374</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -1538,11 +1419,17 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46">
-      <c r="A46" s="1"/>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>42</v>
+      </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="C46" s="1" t="n">
+        <v>436993</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1560,11 +1447,17 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47">
-      <c r="A47" s="1"/>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>43</v>
+      </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="C47" s="1" t="n">
+        <v>437605</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1582,11 +1475,17 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48">
-      <c r="A48" s="1"/>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>44</v>
+      </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="C48" s="1" t="n">
+        <v>440231</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -1604,11 +1503,17 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49">
-      <c r="A49" s="1"/>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>45</v>
+      </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="C49" s="1" t="n">
+        <v>455469</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1626,11 +1531,17 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50">
-      <c r="A50" s="1"/>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>46</v>
+      </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="C50" s="1" t="n">
+        <v>457745</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1648,11 +1559,17 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51">
-      <c r="A51" s="1"/>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>47</v>
+      </c>
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="C51" s="1" t="n">
+        <v>457814</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -1670,11 +1587,17 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52">
-      <c r="A52" s="1"/>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>48</v>
+      </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="C52" s="1" t="n">
+        <v>458635</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -1692,11 +1615,17 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53">
-      <c r="A53" s="1"/>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>49</v>
+      </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="C53" s="1" t="n">
+        <v>476304</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -1714,11 +1643,17 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54">
-      <c r="A54" s="1"/>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>50</v>
+      </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="C54" s="1" t="n">
+        <v>478217</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -1736,11 +1671,17 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55">
-      <c r="A55" s="1"/>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>51</v>
+      </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="C55" s="1" t="n">
+        <v>494915</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -1758,11 +1699,17 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56">
-      <c r="A56" s="1"/>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>52</v>
+      </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="C56" s="1" t="n">
+        <v>497739</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -1780,11 +1727,17 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57">
-      <c r="A57" s="1"/>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>53</v>
+      </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="C57" s="1" t="n">
+        <v>497918</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -1802,11 +1755,17 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58">
-      <c r="A58" s="1"/>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>54</v>
+      </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="C58" s="1" t="n">
+        <v>502240</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -1824,11 +1783,17 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59">
-      <c r="A59" s="1"/>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>55</v>
+      </c>
       <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="C59" s="1" t="n">
+        <v>63595</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -1846,11 +1811,17 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60">
-      <c r="A60" s="1"/>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>56</v>
+      </c>
       <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="C60" s="1" t="n">
+        <v>63678</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -1868,11 +1839,17 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61">
-      <c r="A61" s="1"/>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>57</v>
+      </c>
       <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="C61" s="1" t="n">
+        <v>63887</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -1890,11 +1867,17 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62">
-      <c r="A62" s="1"/>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>58</v>
+      </c>
       <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="C62" s="1" t="n">
+        <v>64546</v>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -1912,11 +1895,17 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63">
-      <c r="A63" s="1"/>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>59</v>
+      </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="C63" s="1" t="n">
+        <v>64549</v>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -1934,11 +1923,17 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64">
-      <c r="A64" s="1"/>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>60</v>
+      </c>
       <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="C64" s="1" t="n">
+        <v>64550</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -1956,11 +1951,17 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65">
-      <c r="A65" s="1"/>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>61</v>
+      </c>
       <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="C65" s="1" t="n">
+        <v>65060</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -1978,11 +1979,17 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66">
-      <c r="A66" s="1"/>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>62</v>
+      </c>
       <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="C66" s="1" t="n">
+        <v>65617</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -2000,11 +2007,17 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67">
-      <c r="A67" s="1"/>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>63</v>
+      </c>
       <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="C67" s="1" t="n">
+        <v>66727</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -2022,11 +2035,17 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68">
-      <c r="A68" s="1"/>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>64</v>
+      </c>
       <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="C68" s="1" t="n">
+        <v>94781</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -2044,11 +2063,17 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69">
-      <c r="A69" s="1"/>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>65</v>
+      </c>
       <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="C69" s="1" t="n">
+        <v>99383</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -2066,11 +2091,17 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70">
-      <c r="A70" s="1"/>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>66</v>
+      </c>
       <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="C70" s="1" t="n">
+        <v>109069</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -2088,11 +2119,17 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71">
-      <c r="A71" s="1"/>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>67</v>
+      </c>
       <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="C71" s="1" t="n">
+        <v>109143</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -2110,11 +2147,17 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72">
-      <c r="A72" s="1"/>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>68</v>
+      </c>
       <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="C72" s="1" t="n">
+        <v>111158</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -2132,11 +2175,17 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73">
-      <c r="A73" s="1"/>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>69</v>
+      </c>
       <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="C73" s="1" t="n">
+        <v>111277</v>
+      </c>
+      <c r="D73" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -2154,11 +2203,17 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74">
-      <c r="A74" s="1"/>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>70</v>
+      </c>
       <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="C74" s="1" t="n">
+        <v>111397</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -2176,11 +2231,17 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75">
-      <c r="A75" s="1"/>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>71</v>
+      </c>
       <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="C75" s="1" t="n">
+        <v>111404</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -2198,11 +2259,17 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76">
-      <c r="A76" s="1"/>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>72</v>
+      </c>
       <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="C76" s="1" t="n">
+        <v>111410</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -2220,11 +2287,17 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77">
-      <c r="A77" s="1"/>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>73</v>
+      </c>
       <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="C77" s="1" t="n">
+        <v>111411</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -2242,11 +2315,17 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78">
-      <c r="A78" s="1"/>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>74</v>
+      </c>
       <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="C78" s="1" t="n">
+        <v>111578</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -2264,11 +2343,17 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79">
-      <c r="A79" s="1"/>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>75</v>
+      </c>
       <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="C79" s="1" t="n">
+        <v>111619</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -2286,11 +2371,17 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80">
-      <c r="A80" s="1"/>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>76</v>
+      </c>
       <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="C80" s="1" t="n">
+        <v>115940</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -2308,11 +2399,17 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81">
-      <c r="A81" s="1"/>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>77</v>
+      </c>
       <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="C81" s="1" t="n">
+        <v>117115</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -2330,11 +2427,17 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82">
-      <c r="A82" s="1"/>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>78</v>
+      </c>
       <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="C82" s="1" t="n">
+        <v>117680</v>
+      </c>
+      <c r="D82" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -2352,11 +2455,17 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83">
-      <c r="A83" s="1"/>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>79</v>
+      </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="C83" s="1" t="n">
+        <v>118075</v>
+      </c>
+      <c r="D83" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -2374,11 +2483,17 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84">
-      <c r="A84" s="1"/>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>80</v>
+      </c>
       <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="C84" s="1" t="n">
+        <v>119113</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -2396,11 +2511,17 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85">
-      <c r="A85" s="1"/>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>81</v>
+      </c>
       <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="C85" s="1" t="n">
+        <v>119256</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -2418,11 +2539,17 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86">
-      <c r="A86" s="1"/>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>82</v>
+      </c>
       <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+      <c r="C86" s="1" t="n">
+        <v>119339</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -2440,11 +2567,17 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87">
-      <c r="A87" s="1"/>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>83</v>
+      </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="C87" s="1" t="n">
+        <v>119394</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -2462,11 +2595,17 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88">
-      <c r="A88" s="1"/>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>84</v>
+      </c>
       <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="C88" s="1" t="n">
+        <v>119574</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -2484,11 +2623,17 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89">
-      <c r="A89" s="1"/>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>85</v>
+      </c>
       <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="C89" s="1" t="n">
+        <v>119668</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -2506,11 +2651,17 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90">
-      <c r="A90" s="1"/>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>86</v>
+      </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="C90" s="1" t="n">
+        <v>119772</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -2528,11 +2679,17 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91">
-      <c r="A91" s="1"/>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>87</v>
+      </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="C91" s="1" t="n">
+        <v>119790</v>
+      </c>
+      <c r="D91" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -2550,11 +2707,17 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92">
-      <c r="A92" s="1"/>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>88</v>
+      </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="C92" s="1" t="n">
+        <v>119865</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -2572,11 +2735,17 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93">
-      <c r="A93" s="1"/>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>89</v>
+      </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="C93" s="1" t="n">
+        <v>119951</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -2594,11 +2763,17 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94">
-      <c r="A94" s="1"/>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>90</v>
+      </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+      <c r="C94" s="1" t="n">
+        <v>120073</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -2616,11 +2791,17 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95">
-      <c r="A95" s="1"/>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>91</v>
+      </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
+      <c r="C95" s="1" t="n">
+        <v>120576</v>
+      </c>
+      <c r="D95" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -2638,11 +2819,17 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96">
-      <c r="A96" s="1"/>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>92</v>
+      </c>
       <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="C96" s="1" t="n">
+        <v>121521</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -2660,11 +2847,17 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97">
-      <c r="A97" s="1"/>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>93</v>
+      </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="C97" s="1" t="n">
+        <v>121522</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -2682,11 +2875,17 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98">
-      <c r="A98" s="1"/>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>94</v>
+      </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+      <c r="C98" s="1" t="n">
+        <v>121523</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -2704,11 +2903,17 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99">
-      <c r="A99" s="1"/>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>95</v>
+      </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="C99" s="1" t="n">
+        <v>125688</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -2726,11 +2931,17 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100">
-      <c r="A100" s="1"/>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>96</v>
+      </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="C100" s="1" t="n">
+        <v>126010</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -2748,11 +2959,17 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101">
-      <c r="A101" s="1"/>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>97</v>
+      </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
+      <c r="C101" s="1" t="n">
+        <v>126011</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -2770,11 +2987,17 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102">
-      <c r="A102" s="1"/>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>98</v>
+      </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
+      <c r="C102" s="1" t="n">
+        <v>126325</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -2792,11 +3015,17 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103">
-      <c r="A103" s="1"/>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>99</v>
+      </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
+      <c r="C103" s="1" t="n">
+        <v>126681</v>
+      </c>
+      <c r="D103" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -2814,11 +3043,17 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104">
-      <c r="A104" s="1"/>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>100</v>
+      </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
+      <c r="C104" s="1" t="n">
+        <v>127350</v>
+      </c>
+      <c r="D104" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -2836,11 +3071,17 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105">
-      <c r="A105" s="1"/>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>101</v>
+      </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
+      <c r="C105" s="1" t="n">
+        <v>127497</v>
+      </c>
+      <c r="D105" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -2858,11 +3099,17 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106">
-      <c r="A106" s="1"/>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>102</v>
+      </c>
       <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
+      <c r="C106" s="1" t="n">
+        <v>127651</v>
+      </c>
+      <c r="D106" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -2880,11 +3127,17 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107">
-      <c r="A107" s="1"/>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>103</v>
+      </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
+      <c r="C107" s="1" t="n">
+        <v>127717</v>
+      </c>
+      <c r="D107" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -2902,11 +3155,17 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108">
-      <c r="A108" s="1"/>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>104</v>
+      </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+      <c r="C108" s="1" t="n">
+        <v>127797</v>
+      </c>
+      <c r="D108" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -2924,11 +3183,17 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109">
-      <c r="A109" s="1"/>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>105</v>
+      </c>
       <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
+      <c r="C109" s="1" t="n">
+        <v>127798</v>
+      </c>
+      <c r="D109" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -2946,11 +3211,17 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110">
-      <c r="A110" s="1"/>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>106</v>
+      </c>
       <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
+      <c r="C110" s="1" t="n">
+        <v>129089</v>
+      </c>
+      <c r="D110" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -2968,11 +3239,17 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111">
-      <c r="A111" s="1"/>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>107</v>
+      </c>
       <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
+      <c r="C111" s="1" t="n">
+        <v>129247</v>
+      </c>
+      <c r="D111" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -2990,11 +3267,17 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112">
-      <c r="A112" s="1"/>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>108</v>
+      </c>
       <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
+      <c r="C112" s="1" t="n">
+        <v>129277</v>
+      </c>
+      <c r="D112" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -3012,11 +3295,17 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113">
-      <c r="A113" s="1"/>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>109</v>
+      </c>
       <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
+      <c r="C113" s="1" t="n">
+        <v>131748</v>
+      </c>
+      <c r="D113" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -3034,11 +3323,17 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114">
-      <c r="A114" s="1"/>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>110</v>
+      </c>
       <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
+      <c r="C114" s="1" t="n">
+        <v>134562</v>
+      </c>
+      <c r="D114" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -3056,11 +3351,17 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115">
-      <c r="A115" s="1"/>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>111</v>
+      </c>
       <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
+      <c r="C115" s="1" t="n">
+        <v>134564</v>
+      </c>
+      <c r="D115" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -3078,11 +3379,17 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116">
-      <c r="A116" s="1"/>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>112</v>
+      </c>
       <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
+      <c r="C116" s="1" t="n">
+        <v>137448</v>
+      </c>
+      <c r="D116" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -3100,11 +3407,17 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117">
-      <c r="A117" s="1"/>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>113</v>
+      </c>
       <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
+      <c r="C117" s="1" t="n">
+        <v>137964</v>
+      </c>
+      <c r="D117" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -3122,11 +3435,17 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118">
-      <c r="A118" s="1"/>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>114</v>
+      </c>
       <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+      <c r="C118" s="1" t="n">
+        <v>138104</v>
+      </c>
+      <c r="D118" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -3144,11 +3463,17 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119">
-      <c r="A119" s="1"/>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>115</v>
+      </c>
       <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
+      <c r="C119" s="1" t="n">
+        <v>142601</v>
+      </c>
+      <c r="D119" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -3166,11 +3491,17 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120">
-      <c r="A120" s="1"/>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>116</v>
+      </c>
       <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
+      <c r="C120" s="1" t="n">
+        <v>142682</v>
+      </c>
+      <c r="D120" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -3188,11 +3519,17 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121">
-      <c r="A121" s="1"/>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>117</v>
+      </c>
       <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
+      <c r="C121" s="1" t="n">
+        <v>144422</v>
+      </c>
+      <c r="D121" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -3210,11 +3547,17 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122">
-      <c r="A122" s="1"/>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>118</v>
+      </c>
       <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
+      <c r="C122" s="1" t="n">
+        <v>174741</v>
+      </c>
+      <c r="D122" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -3232,11 +3575,17 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123">
-      <c r="A123" s="1"/>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>119</v>
+      </c>
       <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
+      <c r="C123" s="1" t="n">
+        <v>193165</v>
+      </c>
+      <c r="D123" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -3254,11 +3603,17 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124">
-      <c r="A124" s="1"/>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>120</v>
+      </c>
       <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
+      <c r="C124" s="1" t="n">
+        <v>200240</v>
+      </c>
+      <c r="D124" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -3276,11 +3631,17 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125">
-      <c r="A125" s="1"/>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>121</v>
+      </c>
       <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
+      <c r="C125" s="1" t="n">
+        <v>212898</v>
+      </c>
+      <c r="D125" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -3298,11 +3659,17 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126">
-      <c r="A126" s="1"/>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>122</v>
+      </c>
       <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
+      <c r="C126" s="1" t="n">
+        <v>218833</v>
+      </c>
+      <c r="D126" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -3320,11 +3687,17 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127">
-      <c r="A127" s="1"/>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>123</v>
+      </c>
       <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
+      <c r="C127" s="1" t="n">
+        <v>224165</v>
+      </c>
+      <c r="D127" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -3342,11 +3715,17 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128">
-      <c r="A128" s="1"/>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>124</v>
+      </c>
       <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
+      <c r="C128" s="1" t="n">
+        <v>240888</v>
+      </c>
+      <c r="D128" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -3364,11 +3743,17 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129">
-      <c r="A129" s="1"/>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>125</v>
+      </c>
       <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
+      <c r="C129" s="1" t="n">
+        <v>264151</v>
+      </c>
+      <c r="D129" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -3386,11 +3771,17 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130">
-      <c r="A130" s="1"/>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>126</v>
+      </c>
       <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
+      <c r="C130" s="1" t="n">
+        <v>266189</v>
+      </c>
+      <c r="D130" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -3408,11 +3799,17 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131">
-      <c r="A131" s="1"/>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>127</v>
+      </c>
       <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
+      <c r="C131" s="1" t="n">
+        <v>266190</v>
+      </c>
+      <c r="D131" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -3430,11 +3827,17 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132">
-      <c r="A132" s="1"/>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>128</v>
+      </c>
       <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
+      <c r="C132" s="1" t="n">
+        <v>299160</v>
+      </c>
+      <c r="D132" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -3452,11 +3855,17 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133">
-      <c r="A133" s="1"/>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>129</v>
+      </c>
       <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
+      <c r="C133" s="1" t="n">
+        <v>313980</v>
+      </c>
+      <c r="D133" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
@@ -3474,11 +3883,17 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134">
-      <c r="A134" s="1"/>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>130</v>
+      </c>
       <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
+      <c r="C134" s="1" t="n">
+        <v>320847</v>
+      </c>
+      <c r="D134" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -3496,11 +3911,17 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135">
-      <c r="A135" s="1"/>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>131</v>
+      </c>
       <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
+      <c r="C135" s="1" t="n">
+        <v>336197</v>
+      </c>
+      <c r="D135" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -3518,11 +3939,17 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136">
-      <c r="A136" s="1"/>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>132</v>
+      </c>
       <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
+      <c r="C136" s="1" t="n">
+        <v>336704</v>
+      </c>
+      <c r="D136" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -3540,11 +3967,17 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137">
-      <c r="A137" s="1"/>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>133</v>
+      </c>
       <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
+      <c r="C137" s="1" t="n">
+        <v>348895</v>
+      </c>
+      <c r="D137" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -3562,11 +3995,17 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138">
-      <c r="A138" s="1"/>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>134</v>
+      </c>
       <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
+      <c r="C138" s="1" t="n">
+        <v>348925</v>
+      </c>
+      <c r="D138" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -3584,11 +4023,17 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139">
-      <c r="A139" s="1"/>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>135</v>
+      </c>
       <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
+      <c r="C139" s="1" t="n">
+        <v>356546</v>
+      </c>
+      <c r="D139" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
@@ -3606,11 +4051,17 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140">
-      <c r="A140" s="1"/>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>136</v>
+      </c>
       <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
+      <c r="C140" s="1" t="n">
+        <v>381502</v>
+      </c>
+      <c r="D140" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -3628,11 +4079,17 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141">
-      <c r="A141" s="1"/>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>137</v>
+      </c>
       <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
+      <c r="C141" s="1" t="n">
+        <v>382167</v>
+      </c>
+      <c r="D141" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -3650,11 +4107,17 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142">
-      <c r="A142" s="1"/>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>138</v>
+      </c>
       <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
+      <c r="C142" s="1" t="n">
+        <v>382995</v>
+      </c>
+      <c r="D142" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
@@ -3672,11 +4135,17 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143">
-      <c r="A143" s="1"/>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>139</v>
+      </c>
       <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
+      <c r="C143" s="1" t="n">
+        <v>451396</v>
+      </c>
+      <c r="D143" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -3694,11 +4163,17 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144">
-      <c r="A144" s="1"/>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>140</v>
+      </c>
       <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
+      <c r="C144" s="1" t="n">
+        <v>458130</v>
+      </c>
+      <c r="D144" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -3716,11 +4191,17 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145">
-      <c r="A145" s="1"/>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>141</v>
+      </c>
       <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
+      <c r="C145" s="1" t="n">
+        <v>458789</v>
+      </c>
+      <c r="D145" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -3738,11 +4219,17 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146">
-      <c r="A146" s="1"/>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>142</v>
+      </c>
       <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
+      <c r="C146" s="1" t="n">
+        <v>476243</v>
+      </c>
+      <c r="D146" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
@@ -3760,11 +4247,17 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147">
-      <c r="A147" s="1"/>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>143</v>
+      </c>
       <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
+      <c r="C147" s="1" t="n">
+        <v>479104</v>
+      </c>
+      <c r="D147" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -3782,11 +4275,17 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148">
-      <c r="A148" s="1"/>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>144</v>
+      </c>
       <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
+      <c r="C148" s="1" t="n">
+        <v>494888</v>
+      </c>
+      <c r="D148" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -3804,11 +4303,17 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149">
-      <c r="A149" s="1"/>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>145</v>
+      </c>
       <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
+      <c r="C149" s="1" t="n">
+        <v>502264</v>
+      </c>
+      <c r="D149" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -3826,11 +4331,17 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150">
-      <c r="A150" s="1"/>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>146</v>
+      </c>
       <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
+      <c r="C150" s="1" t="n">
+        <v>504635</v>
+      </c>
+      <c r="D150" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -3848,11 +4359,17 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151">
-      <c r="A151" s="1"/>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>147</v>
+      </c>
       <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
+      <c r="C151" s="1" t="n">
+        <v>507478</v>
+      </c>
+      <c r="D151" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -3870,7 +4387,7 @@
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -3892,7 +4409,7 @@
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -3914,7 +4431,7 @@
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -3936,7 +4453,7 @@
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -3958,7 +4475,7 @@
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -3980,7 +4497,7 @@
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4002,7 +4519,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4024,7 +4541,7 @@
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4046,7 +4563,7 @@
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4068,7 +4585,7 @@
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4090,7 +4607,7 @@
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4112,7 +4629,7 @@
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4134,7 +4651,7 @@
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4156,7 +4673,7 @@
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4178,7 +4695,7 @@
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4200,7 +4717,7 @@
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4222,7 +4739,7 @@
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4244,7 +4761,7 @@
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4266,7 +4783,7 @@
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4288,7 +4805,7 @@
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -4310,7 +4827,7 @@
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -4332,7 +4849,7 @@
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -4354,7 +4871,7 @@
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4376,7 +4893,7 @@
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -4398,7 +4915,7 @@
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -4420,7 +4937,7 @@
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -4442,7 +4959,7 @@
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -4464,7 +4981,7 @@
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -4486,7 +5003,7 @@
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -4508,7 +5025,7 @@
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -4530,7 +5047,7 @@
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4552,7 +5069,7 @@
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -4574,7 +5091,7 @@
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -4596,7 +5113,7 @@
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -4618,7 +5135,7 @@
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -4640,7 +5157,7 @@
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -4662,7 +5179,7 @@
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -4684,7 +5201,7 @@
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -4706,7 +5223,7 @@
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -4728,7 +5245,7 @@
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -4750,7 +5267,7 @@
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -4772,7 +5289,7 @@
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -4794,7 +5311,7 @@
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -4816,7 +5333,7 @@
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -4838,7 +5355,7 @@
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -4860,7 +5377,7 @@
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -4882,7 +5399,7 @@
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -4904,7 +5421,7 @@
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -4926,7 +5443,7 @@
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -4949,7 +5466,13 @@
       <c r="T200" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <picture r:id="rId1"/>
 </worksheet>
 </file>